--- a/tests/Files/ExampleOdkWithMedia.xlsx
+++ b/tests/Files/ExampleOdkWithMedia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dave/Projects/Packages/laravel-odk-link/tests/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FE5208C-91B6-7E4F-B9BA-1C4B5B675FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F376D1E3-2CA3-2C48-BF89-B166F386CFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24240" yWindow="-28300" windowWidth="51200" windowHeight="28300" tabRatio="321" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
   <si>
     <t>type</t>
   </si>
@@ -261,57 +261,6 @@
     <t>Select all that apply</t>
   </si>
   <si>
-    <t>coke</t>
-  </si>
-  <si>
-    <t>diet_coke</t>
-  </si>
-  <si>
-    <t>pepsi</t>
-  </si>
-  <si>
-    <t>diet_pepsi</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>green_tea</t>
-  </si>
-  <si>
-    <t>herbal_tea</t>
-  </si>
-  <si>
-    <t>red_bull</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Coca-Cola</t>
-  </si>
-  <si>
-    <t>Diet Coke</t>
-  </si>
-  <si>
-    <t>Pepsi</t>
-  </si>
-  <si>
-    <t>Diet Pepsi</t>
-  </si>
-  <si>
-    <t>Black Tea</t>
-  </si>
-  <si>
-    <t>Green Tea</t>
-  </si>
-  <si>
-    <t>Herbal Tea (any variety)</t>
-  </si>
-  <si>
-    <t>Red Bull</t>
-  </si>
-  <si>
     <t>Other Caffinated Energy Drink</t>
   </si>
   <si>
@@ -391,6 +340,12 @@
   </si>
   <si>
     <t>coffee.png</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>search('drinks')</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1223,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="90" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1408,7 +1363,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1416,19 +1371,19 @@
         <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1442,10 +1397,10 @@
         <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1459,16 +1414,16 @@
         <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="31" x14ac:dyDescent="0.25">
@@ -1484,56 +1439,59 @@
       <c r="D10" s="23" t="s">
         <v>72</v>
       </c>
+      <c r="G10" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1541,13 +1499,13 @@
         <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1589,11 +1547,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1762,102 +1720,25 @@
         <v>70</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>74</v>
+      <c r="B19" s="24">
+        <v>99</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
+      <c r="A20" s="24"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C10:C18">
@@ -1903,10 +1784,10 @@
     </row>
     <row r="2" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D2">
         <v>20171113</v>

--- a/tests/Files/ExampleOdkWithMedia.xlsx
+++ b/tests/Files/ExampleOdkWithMedia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dave/Projects/Packages/laravel-odk-link/tests/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F376D1E3-2CA3-2C48-BF89-B166F386CFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B090B721-10D5-4E4F-BAC6-172F44FE94CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24240" yWindow="-28300" windowWidth="51200" windowHeight="28300" tabRatio="321" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3400" windowWidth="21300" windowHeight="10660" tabRatio="321" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -318,12 +318,6 @@
     <t xml:space="preserve">Swipe right to end the form and see the options for saving and finalising this instance. </t>
   </si>
   <si>
-    <t>Example Survey One</t>
-  </si>
-  <si>
-    <t>example_one</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -346,6 +340,12 @@
   </si>
   <si>
     <t>search('drinks')</t>
+  </si>
+  <si>
+    <t>Example Survey OneA</t>
+  </si>
+  <si>
+    <t>example_onea</t>
   </si>
 </sst>
 </file>
@@ -1221,9 +1221,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="90" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="90" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1363,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1377,7 +1377,7 @@
         <v>85</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>86</v>
@@ -1397,10 +1397,10 @@
         <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1414,13 +1414,13 @@
         <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>88</v>
@@ -1440,7 +1440,7 @@
         <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1457,7 +1457,7 @@
         <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1465,7 +1465,7 @@
         <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>81</v>
@@ -1474,7 +1474,7 @@
         <v>82</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>83</v>
@@ -1491,7 +1491,7 @@
         <v>76</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1754,8 +1754,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1784,10 +1784,10 @@
     </row>
     <row r="2" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D2">
         <v>20171113</v>

--- a/tests/Files/ExampleOdkWithMedia.xlsx
+++ b/tests/Files/ExampleOdkWithMedia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dave/Projects/Packages/laravel-odk-link/tests/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B090B721-10D5-4E4F-BAC6-172F44FE94CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4148B462-2E59-F040-9A5C-B2DEEC20AE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3400" windowWidth="21300" windowHeight="10660" tabRatio="321" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="321" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="104">
   <si>
     <t>type</t>
   </si>
@@ -132,9 +132,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>na_note1</t>
-  </si>
-  <si>
     <t>This is the first example fom for the workshop on 14th November 2017.</t>
   </si>
   <si>
@@ -346,6 +343,15 @@
   </si>
   <si>
     <t>example_onea</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>test_group</t>
+  </si>
+  <si>
+    <t>end group</t>
   </si>
 </sst>
 </file>
@@ -1219,11 +1225,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="90" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="90" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1342,175 +1348,190 @@
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="31" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="D10" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="G10" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="A11" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>94</v>
+        <v>81</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D15" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>91</v>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="A10:D10">
+  <conditionalFormatting sqref="A10:D11">
     <cfRule type="expression" dxfId="8" priority="1">
       <formula>NOT(ISERROR(SEARCH("Begin Repeat",A10)))</formula>
     </cfRule>
@@ -1574,167 +1595,167 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="14">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="14">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="24">
         <v>99</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1754,7 +1775,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1784,10 +1805,10 @@
     </row>
     <row r="2" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
         <v>100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>101</v>
       </c>
       <c r="D2">
         <v>20171113</v>
